--- a/main/ig/StructureDefinition-fr-core-organization-etablissement.xlsx
+++ b/main/ig/StructureDefinition-fr-core-organization-etablissement.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$114</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5456" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4151" uniqueCount="573">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T10:29:57+00:00</t>
+    <t>2026-01-29T08:32:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1464,174 +1464,6 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Organization.type:organizationType</t>
-  </si>
-  <si>
-    <t>organizationType</t>
-  </si>
-  <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type|2.2.0-ballot</t>
-  </si>
-  <si>
-    <t>Organization.type:organizationType.id</t>
-  </si>
-  <si>
-    <t>Organization.type.id</t>
-  </si>
-  <si>
-    <t>Organization.type:organizationType.extension</t>
-  </si>
-  <si>
-    <t>Organization.type.extension</t>
-  </si>
-  <si>
-    <t>Organization.type:organizationType.coding</t>
-  </si>
-  <si>
-    <t>Organization.type.coding</t>
-  </si>
-  <si>
-    <t>Organization.type:organizationType.coding.id</t>
-  </si>
-  <si>
-    <t>Organization.type.coding.id</t>
-  </si>
-  <si>
-    <t>Organization.type:organizationType.coding.extension</t>
-  </si>
-  <si>
-    <t>Organization.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Organization.type:organizationType.coding.system</t>
-  </si>
-  <si>
-    <t>Organization.type.coding.system</t>
-  </si>
-  <si>
-    <t>Organization.type:organizationType.coding.version</t>
-  </si>
-  <si>
-    <t>Organization.type.coding.version</t>
-  </si>
-  <si>
-    <t>Organization.type:organizationType.coding.code</t>
-  </si>
-  <si>
-    <t>Organization.type.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>Organization.type:organizationType.coding.display</t>
-  </si>
-  <si>
-    <t>Organization.type.coding.display</t>
-  </si>
-  <si>
-    <t>Organization.type:organizationType.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Organization.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Organization.type:organizationType.text</t>
-  </si>
-  <si>
-    <t>Organization.type.text</t>
-  </si>
-  <si>
-    <t>Organization.type:secteurActiviteRASS</t>
-  </si>
-  <si>
-    <t>secteurActiviteRASS</t>
-  </si>
-  <si>
-    <t>Secteurs d'activité des établissements avec la même activité dans le RASS</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J101-SecteurActivite-RASS/FHIR/JDV-J101-SecteurActivite-RASS|20250828120000</t>
-  </si>
-  <si>
-    <t>Organization.type:secteurActiviteRASS.id</t>
-  </si>
-  <si>
-    <t>Organization.type:secteurActiviteRASS.extension</t>
-  </si>
-  <si>
-    <t>Organization.type:secteurActiviteRASS.coding</t>
-  </si>
-  <si>
-    <t>Organization.type:secteurActiviteRASS.coding.id</t>
-  </si>
-  <si>
-    <t>Organization.type:secteurActiviteRASS.coding.extension</t>
-  </si>
-  <si>
-    <t>Organization.type:secteurActiviteRASS.coding.system</t>
-  </si>
-  <si>
-    <t>Organization.type:secteurActiviteRASS.coding.version</t>
-  </si>
-  <si>
-    <t>Organization.type:secteurActiviteRASS.coding.code</t>
-  </si>
-  <si>
-    <t>Organization.type:secteurActiviteRASS.coding.display</t>
-  </si>
-  <si>
-    <t>Organization.type:secteurActiviteRASS.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Organization.type:secteurActiviteRASS.text</t>
-  </si>
-  <si>
-    <t>Organization.type:categorieEtablissementRASS</t>
-  </si>
-  <si>
-    <t>categorieEtablissementRASS</t>
-  </si>
-  <si>
-    <t>Catégorie d'établissement du RASS</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J129-CategorieEtablissement-RASS/FHIR/JDV-J129-CategorieEtablissement-RASS|20241025120000</t>
-  </si>
-  <si>
-    <t>Organization.type:categorieEtablissementRASS.id</t>
-  </si>
-  <si>
-    <t>Organization.type:categorieEtablissementRASS.extension</t>
-  </si>
-  <si>
-    <t>Organization.type:categorieEtablissementRASS.coding</t>
-  </si>
-  <si>
-    <t>Organization.type:categorieEtablissementRASS.coding.id</t>
-  </si>
-  <si>
-    <t>Organization.type:categorieEtablissementRASS.coding.extension</t>
-  </si>
-  <si>
-    <t>Organization.type:categorieEtablissementRASS.coding.system</t>
-  </si>
-  <si>
-    <t>Organization.type:categorieEtablissementRASS.coding.version</t>
-  </si>
-  <si>
-    <t>Organization.type:categorieEtablissementRASS.coding.code</t>
-  </si>
-  <si>
-    <t>Organization.type:categorieEtablissementRASS.coding.display</t>
-  </si>
-  <si>
-    <t>Organization.type:categorieEtablissementRASS.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Organization.type:categorieEtablissementRASS.text</t>
-  </si>
-  <si>
     <t>Organization.name</t>
   </si>
   <si>
@@ -1799,6 +1631,9 @@
   </si>
   <si>
     <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -2305,7 +2140,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN150"/>
+  <dimension ref="A1:AN114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2314,9 +2149,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.15234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.03125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.63671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.38671875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -2339,7 +2174,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="107.44921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="71.0078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -13081,16 +12916,14 @@
         <v>461</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
         <v>462</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
         <v>78</v>
       </c>
@@ -13102,7 +12935,7 @@
         <v>88</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>78</v>
@@ -13111,19 +12944,19 @@
         <v>89</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>262</v>
+        <v>102</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>78</v>
@@ -13148,11 +12981,13 @@
         <v>78</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y95" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z95" t="s" s="2">
-        <v>464</v>
+        <v>78</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>78</v>
@@ -13170,39 +13005,39 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>106</v>
+        <v>469</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>461</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13213,7 +13048,7 @@
         <v>79</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>78</v>
@@ -13228,13 +13063,17 @@
         <v>102</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>103</v>
+        <v>471</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>78</v>
       </c>
@@ -13282,25 +13121,25 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>105</v>
+        <v>470</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>106</v>
+        <v>468</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>78</v>
@@ -13311,14 +13150,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13337,18 +13176,20 @@
         <v>78</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>109</v>
+        <v>476</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>110</v>
+        <v>477</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>111</v>
+        <v>478</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O97" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>78</v>
       </c>
@@ -13384,19 +13225,19 @@
         <v>78</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>116</v>
+        <v>475</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13405,19 +13246,19 @@
         <v>80</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>78</v>
+        <v>481</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>117</v>
+        <v>482</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>78</v>
+        <v>483</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>106</v>
+        <v>484</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>78</v>
+        <v>485</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>78</v>
@@ -13425,10 +13266,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13436,10 +13277,10 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>78</v>
@@ -13448,22 +13289,22 @@
         <v>78</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>146</v>
+        <v>487</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>361</v>
+        <v>488</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>362</v>
+        <v>489</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>363</v>
+        <v>490</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>364</v>
+        <v>491</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>78</v>
@@ -13512,7 +13353,7 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>365</v>
+        <v>486</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -13521,19 +13362,19 @@
         <v>80</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>78</v>
+        <v>492</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>100</v>
+        <v>493</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>366</v>
+        <v>494</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>367</v>
+        <v>495</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>78</v>
+        <v>496</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>78</v>
@@ -13541,10 +13382,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13564,19 +13405,21 @@
         <v>78</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>102</v>
+        <v>498</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>103</v>
+        <v>499</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>104</v>
+        <v>500</v>
       </c>
       <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>78</v>
       </c>
@@ -13624,7 +13467,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>105</v>
+        <v>497</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -13636,16 +13479,16 @@
         <v>78</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="AL99" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AM99" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>78</v>
@@ -13653,21 +13496,21 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>78</v>
@@ -13679,17 +13522,15 @@
         <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>78</v>
@@ -13726,31 +13567,31 @@
         <v>78</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>78</v>
@@ -13767,21 +13608,21 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>476</v>
+        <v>504</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>78</v>
@@ -13790,23 +13631,21 @@
         <v>78</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>374</v>
+        <v>110</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>375</v>
+        <v>111</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>78</v>
       </c>
@@ -13842,37 +13681,37 @@
         <v>78</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC101" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>379</v>
+        <v>116</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>380</v>
+        <v>78</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>381</v>
+        <v>106</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>78</v>
@@ -13883,10 +13722,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>477</v>
+        <v>505</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13912,13 +13751,13 @@
         <v>102</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>384</v>
+        <v>506</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>385</v>
+        <v>507</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>386</v>
+        <v>508</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -13968,7 +13807,7 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>387</v>
+        <v>509</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -13977,16 +13816,16 @@
         <v>88</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>78</v>
+        <v>510</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>388</v>
+        <v>78</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>389</v>
+        <v>191</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>78</v>
@@ -13997,10 +13836,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>479</v>
+        <v>511</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>480</v>
+        <v>511</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14023,18 +13862,18 @@
         <v>89</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>78</v>
       </c>
@@ -14058,13 +13897,11 @@
         <v>78</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y103" s="2"/>
       <c r="Z103" t="s" s="2">
-        <v>78</v>
+        <v>515</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>78</v>
@@ -14082,7 +13919,7 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>395</v>
+        <v>516</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
@@ -14097,10 +13934,10 @@
         <v>100</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>396</v>
+        <v>78</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>397</v>
+        <v>191</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>78</v>
@@ -14111,10 +13948,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>482</v>
+        <v>517</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>483</v>
+        <v>517</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14137,18 +13974,18 @@
         <v>89</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>400</v>
+        <v>518</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>78</v>
       </c>
@@ -14196,7 +14033,7 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>403</v>
+        <v>521</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
@@ -14211,10 +14048,10 @@
         <v>100</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>404</v>
+        <v>78</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>405</v>
+        <v>522</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>78</v>
@@ -14225,10 +14062,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>484</v>
+        <v>523</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>485</v>
+        <v>523</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14251,20 +14088,18 @@
         <v>89</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>408</v>
+        <v>102</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>409</v>
+        <v>524</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>410</v>
+        <v>525</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>78</v>
       </c>
@@ -14312,7 +14147,7 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>413</v>
+        <v>527</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -14327,10 +14162,10 @@
         <v>100</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>414</v>
+        <v>78</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>415</v>
+        <v>191</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>78</v>
@@ -14341,10 +14176,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>486</v>
+        <v>528</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>487</v>
+        <v>528</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14355,7 +14190,7 @@
         <v>79</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>78</v>
@@ -14364,22 +14199,22 @@
         <v>78</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>102</v>
+        <v>529</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>418</v>
+        <v>530</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>419</v>
+        <v>531</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>420</v>
+        <v>532</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>421</v>
+        <v>533</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>78</v>
@@ -14428,13 +14263,13 @@
         <v>78</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>422</v>
+        <v>528</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>78</v>
@@ -14443,10 +14278,10 @@
         <v>100</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>423</v>
+        <v>78</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>424</v>
+        <v>534</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>78</v>
@@ -14457,14 +14292,12 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>488</v>
+        <v>535</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C107" t="s" s="2">
-        <v>489</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
         <v>78</v>
       </c>
@@ -14482,23 +14315,19 @@
         <v>78</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>262</v>
+        <v>102</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>490</v>
+        <v>103</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>78</v>
       </c>
@@ -14522,11 +14351,13 @@
         <v>78</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y107" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z107" t="s" s="2">
-        <v>491</v>
+        <v>78</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>78</v>
@@ -14544,50 +14375,50 @@
         <v>78</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>453</v>
+        <v>105</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>459</v>
+        <v>78</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>460</v>
+        <v>106</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>461</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>492</v>
+        <v>536</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>466</v>
+        <v>536</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>78</v>
@@ -14599,15 +14430,17 @@
         <v>78</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>78</v>
@@ -14656,19 +14489,19 @@
         <v>78</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>78</v>
@@ -14685,14 +14518,14 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>493</v>
+        <v>537</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>468</v>
+        <v>537</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>108</v>
+        <v>538</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -14705,24 +14538,26 @@
         <v>78</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K109" t="s" s="2">
         <v>109</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>110</v>
+        <v>539</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>111</v>
+        <v>540</v>
       </c>
       <c r="N109" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="O109" s="2"/>
+      <c r="O109" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P109" t="s" s="2">
         <v>78</v>
       </c>
@@ -14758,19 +14593,19 @@
         <v>78</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC109" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>116</v>
+        <v>541</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -14788,7 +14623,7 @@
         <v>78</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>78</v>
@@ -14799,10 +14634,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>494</v>
+        <v>542</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>470</v>
+        <v>542</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14810,7 +14645,7 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>88</v>
@@ -14822,22 +14657,20 @@
         <v>78</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>146</v>
+        <v>262</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>361</v>
+        <v>543</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>364</v>
+        <v>545</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>78</v>
@@ -14862,13 +14695,13 @@
         <v>78</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>78</v>
+        <v>546</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>78</v>
+        <v>547</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>78</v>
@@ -14886,13 +14719,13 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>365</v>
+        <v>542</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>78</v>
@@ -14901,10 +14734,10 @@
         <v>100</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>366</v>
+        <v>78</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>367</v>
+        <v>548</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>78</v>
@@ -14915,10 +14748,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>495</v>
+        <v>549</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>472</v>
+        <v>549</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14941,16 +14774,18 @@
         <v>78</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>102</v>
+        <v>550</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>103</v>
+        <v>551</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>104</v>
+        <v>552</v>
       </c>
       <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
+      <c r="O111" t="s" s="2">
+        <v>553</v>
+      </c>
       <c r="P111" t="s" s="2">
         <v>78</v>
       </c>
@@ -14998,7 +14833,7 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>105</v>
+        <v>549</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
@@ -15010,13 +14845,13 @@
         <v>78</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>78</v>
+        <v>554</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>106</v>
+        <v>555</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>78</v>
@@ -15027,14 +14862,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>474</v>
+        <v>556</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15053,18 +14888,18 @@
         <v>78</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>109</v>
+        <v>476</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>110</v>
+        <v>557</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O112" s="2"/>
+        <v>558</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" t="s" s="2">
+        <v>559</v>
+      </c>
       <c r="P112" t="s" s="2">
         <v>78</v>
       </c>
@@ -15100,19 +14935,19 @@
         <v>78</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC112" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>116</v>
+        <v>556</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
@@ -15124,13 +14959,13 @@
         <v>78</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>78</v>
+        <v>560</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>106</v>
+        <v>561</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>78</v>
@@ -15141,10 +14976,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>497</v>
+        <v>562</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>476</v>
+        <v>562</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15152,7 +14987,7 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>88</v>
@@ -15164,22 +14999,20 @@
         <v>78</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>130</v>
+        <v>487</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>374</v>
+        <v>563</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>377</v>
+        <v>565</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>78</v>
@@ -15228,7 +15061,7 @@
         <v>78</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>379</v>
+        <v>562</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
@@ -15243,10 +15076,10 @@
         <v>100</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>380</v>
+        <v>566</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>381</v>
+        <v>567</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>78</v>
@@ -15257,10 +15090,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>498</v>
+        <v>568</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>478</v>
+        <v>568</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15271,7 +15104,7 @@
         <v>79</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>78</v>
@@ -15280,21 +15113,21 @@
         <v>78</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>102</v>
+        <v>569</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>384</v>
+        <v>570</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O114" s="2"/>
+        <v>571</v>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" t="s" s="2">
+        <v>572</v>
+      </c>
       <c r="P114" t="s" s="2">
         <v>78</v>
       </c>
@@ -15342,13 +15175,13 @@
         <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>387</v>
+        <v>568</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>78</v>
@@ -15357,4140 +15190,20 @@
         <v>100</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>388</v>
+        <v>78</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>389</v>
+        <v>106</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="115" hidden="true">
-      <c r="A115" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="P115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q115" s="2"/>
-      <c r="R115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="116" hidden="true">
-      <c r="A116" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E116" s="2"/>
-      <c r="F116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N116" s="2"/>
-      <c r="O116" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="P116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q116" s="2"/>
-      <c r="R116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="117" hidden="true">
-      <c r="A117" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="P117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q117" s="2"/>
-      <c r="R117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="118" hidden="true">
-      <c r="A118" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="P118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q118" s="2"/>
-      <c r="R118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="119" hidden="true">
-      <c r="A119" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C119" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="D119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E119" s="2"/>
-      <c r="F119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="P119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q119" s="2"/>
-      <c r="R119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y119" s="2"/>
-      <c r="Z119" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="120" hidden="true">
-      <c r="A120" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="F120" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
-      <c r="P120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q120" s="2"/>
-      <c r="R120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="121" hidden="true">
-      <c r="A121" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="E121" s="2"/>
-      <c r="F121" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O121" s="2"/>
-      <c r="P121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q121" s="2"/>
-      <c r="R121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="122" hidden="true">
-      <c r="A122" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E122" s="2"/>
-      <c r="F122" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="P122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q122" s="2"/>
-      <c r="R122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="123" hidden="true">
-      <c r="A123" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E123" s="2"/>
-      <c r="F123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
-      <c r="P123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q123" s="2"/>
-      <c r="R123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="124" hidden="true">
-      <c r="A124" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="E124" s="2"/>
-      <c r="F124" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O124" s="2"/>
-      <c r="P124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q124" s="2"/>
-      <c r="R124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E125" s="2"/>
-      <c r="F125" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="P125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q125" s="2"/>
-      <c r="R125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O126" s="2"/>
-      <c r="P126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q126" s="2"/>
-      <c r="R126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E127" s="2"/>
-      <c r="F127" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N127" s="2"/>
-      <c r="O127" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="P127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q127" s="2"/>
-      <c r="R127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B128" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="C128" s="2"/>
-      <c r="D128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E128" s="2"/>
-      <c r="F128" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N128" s="2"/>
-      <c r="O128" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="P128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q128" s="2"/>
-      <c r="R128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="129" hidden="true">
-      <c r="A129" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="B129" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="C129" s="2"/>
-      <c r="D129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E129" s="2"/>
-      <c r="F129" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="P129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q129" s="2"/>
-      <c r="R129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="130" hidden="true">
-      <c r="A130" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="B130" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="C130" s="2"/>
-      <c r="D130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E130" s="2"/>
-      <c r="F130" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J130" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="P130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q130" s="2"/>
-      <c r="R130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E131" s="2"/>
-      <c r="F131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="P131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q131" s="2"/>
-      <c r="R131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="132" hidden="true">
-      <c r="A132" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="C132" s="2"/>
-      <c r="D132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E132" s="2"/>
-      <c r="F132" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G132" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="O132" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="P132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q132" s="2"/>
-      <c r="R132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AG132" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH132" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ132" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL132" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AM132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN132" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="133" hidden="true">
-      <c r="A133" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="B133" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="C133" s="2"/>
-      <c r="D133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E133" s="2"/>
-      <c r="F133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G133" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="P133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q133" s="2"/>
-      <c r="R133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AK133" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AL133" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AM133" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AN133" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="134" hidden="true">
-      <c r="A134" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="C134" s="2"/>
-      <c r="D134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E134" s="2"/>
-      <c r="F134" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="P134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q134" s="2"/>
-      <c r="R134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AN134" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="135" hidden="true">
-      <c r="A135" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="B135" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="C135" s="2"/>
-      <c r="D135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E135" s="2"/>
-      <c r="F135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J135" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K135" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="N135" s="2"/>
-      <c r="O135" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="P135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q135" s="2"/>
-      <c r="R135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AG135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="136" hidden="true">
-      <c r="A136" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="C136" s="2"/>
-      <c r="D136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E136" s="2"/>
-      <c r="F136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N136" s="2"/>
-      <c r="O136" s="2"/>
-      <c r="P136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q136" s="2"/>
-      <c r="R136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN136" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="137" hidden="true">
-      <c r="A137" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="B137" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="C137" s="2"/>
-      <c r="D137" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="E137" s="2"/>
-      <c r="F137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G137" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K137" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L137" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O137" s="2"/>
-      <c r="P137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q137" s="2"/>
-      <c r="R137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AC137" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AD137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE137" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AF137" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AG137" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH137" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ137" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL137" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN137" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="138" hidden="true">
-      <c r="A138" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="B138" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="C138" s="2"/>
-      <c r="D138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E138" s="2"/>
-      <c r="F138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G138" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J138" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K138" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="O138" s="2"/>
-      <c r="P138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q138" s="2"/>
-      <c r="R138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AG138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH138" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI138" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="AJ138" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL138" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AM138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN138" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="139" hidden="true">
-      <c r="A139" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="C139" s="2"/>
-      <c r="D139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E139" s="2"/>
-      <c r="F139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G139" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J139" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K139" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="O139" s="2"/>
-      <c r="P139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q139" s="2"/>
-      <c r="R139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X139" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y139" s="2"/>
-      <c r="Z139" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AA139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AG139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH139" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ139" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL139" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AM139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN139" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="140" hidden="true">
-      <c r="A140" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="C140" s="2"/>
-      <c r="D140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E140" s="2"/>
-      <c r="F140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G140" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J140" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K140" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="O140" s="2"/>
-      <c r="P140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q140" s="2"/>
-      <c r="R140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF140" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="AG140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH140" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ140" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL140" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AM140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN140" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="141" hidden="true">
-      <c r="A141" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="B141" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="C141" s="2"/>
-      <c r="D141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E141" s="2"/>
-      <c r="F141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G141" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J141" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K141" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="O141" s="2"/>
-      <c r="P141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q141" s="2"/>
-      <c r="R141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF141" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="AG141" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH141" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ141" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AM141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN141" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="142" hidden="true">
-      <c r="A142" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="B142" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="C142" s="2"/>
-      <c r="D142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E142" s="2"/>
-      <c r="F142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G142" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K142" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="P142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q142" s="2"/>
-      <c r="R142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF142" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ142" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN142" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="143" hidden="true">
-      <c r="A143" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="B143" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="C143" s="2"/>
-      <c r="D143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E143" s="2"/>
-      <c r="F143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G143" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K143" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N143" s="2"/>
-      <c r="O143" s="2"/>
-      <c r="P143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q143" s="2"/>
-      <c r="R143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF143" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AG143" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH143" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL143" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN143" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="144" hidden="true">
-      <c r="A144" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="B144" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="C144" s="2"/>
-      <c r="D144" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="E144" s="2"/>
-      <c r="F144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G144" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K144" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O144" s="2"/>
-      <c r="P144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q144" s="2"/>
-      <c r="R144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF144" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AG144" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH144" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ144" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL144" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN144" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="145" hidden="true">
-      <c r="A145" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="C145" s="2"/>
-      <c r="D145" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="E145" s="2"/>
-      <c r="F145" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G145" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I145" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J145" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K145" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L145" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O145" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="P145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q145" s="2"/>
-      <c r="R145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF145" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AG145" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH145" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ145" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL145" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AM145" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN145" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="146" hidden="true">
-      <c r="A146" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="B146" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="C146" s="2"/>
-      <c r="D146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E146" s="2"/>
-      <c r="F146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G146" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K146" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="L146" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M146" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N146" s="2"/>
-      <c r="O146" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="P146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q146" s="2"/>
-      <c r="R146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X146" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y146" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="Z146" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF146" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="AG146" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH146" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ146" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL146" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="AM146" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN146" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="147" hidden="true">
-      <c r="A147" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="B147" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="C147" s="2"/>
-      <c r="D147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E147" s="2"/>
-      <c r="F147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G147" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K147" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N147" s="2"/>
-      <c r="O147" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="P147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q147" s="2"/>
-      <c r="R147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF147" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="AG147" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH147" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ147" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK147" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="AL147" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="AM147" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN147" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="148" hidden="true">
-      <c r="A148" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="B148" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="C148" s="2"/>
-      <c r="D148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E148" s="2"/>
-      <c r="F148" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K148" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N148" s="2"/>
-      <c r="O148" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="P148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q148" s="2"/>
-      <c r="R148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF148" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="AG148" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH148" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ148" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK148" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AL148" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AM148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN148" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="149" hidden="true">
-      <c r="A149" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="B149" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="C149" s="2"/>
-      <c r="D149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E149" s="2"/>
-      <c r="F149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G149" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K149" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N149" s="2"/>
-      <c r="O149" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="P149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q149" s="2"/>
-      <c r="R149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AG149" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH149" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ149" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK149" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="AL149" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN149" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="150" hidden="true">
-      <c r="A150" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="B150" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="C150" s="2"/>
-      <c r="D150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E150" s="2"/>
-      <c r="F150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G150" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K150" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="N150" s="2"/>
-      <c r="O150" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="P150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q150" s="2"/>
-      <c r="R150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF150" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="AG150" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH150" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ150" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL150" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AM150" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN150" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN150">
+  <autoFilter ref="A1:AN114">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -19500,7 +15213,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI149">
+  <conditionalFormatting sqref="A2:AI113">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/main/ig/StructureDefinition-fr-core-organization-etablissement.xlsx
+++ b/main/ig/StructureDefinition-fr-core-organization-etablissement.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:32:45+00:00</t>
+    <t>2026-01-29T08:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Interop'Santé (http://interopsante.org/)</t>
+    <t>Interop'Santé (http://interopsante.org)</t>
   </si>
   <si>
     <t>InteropSanté (fhir@interopsante.org(Work))</t>
@@ -117,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -633,7 +633,7 @@
     <t>shortName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -704,7 +704,7 @@
     <t>members</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-member|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-member|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -720,7 +720,7 @@
     <t>sae</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-sae-category|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-sae-category|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -736,7 +736,7 @@
     <t>raisonSociale</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-raison-sociale|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-raison-sociale|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -853,7 +853,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-identifier-type|2.2.0-ballot</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-identifier-type|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1452,7 +1452,7 @@
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-etablissement-type|2.2.0-ballot</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-etablissement-type|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>No equivalent in v2</t>
@@ -1507,7 +1507,7 @@
     <t>Organization.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.2.0-ballot}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -1543,7 +1543,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.2.0-ballot}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -1579,7 +1579,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-etablissement|2.2.0-ballot)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot-2|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-etablissement|2.2.0-ballot-2)
 </t>
   </si>
   <si>
@@ -1633,7 +1633,7 @@
     <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type|2.2.0-ballot</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -2159,7 +2159,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="142.28515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="145.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2174,7 +2174,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="71.0078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="72.578125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-fr-core-organization-etablissement.xlsx
+++ b/main/ig/StructureDefinition-fr-core-organization-etablissement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:34:51+00:00</t>
+    <t>2026-01-29T08:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-organization-etablissement.xlsx
+++ b/main/ig/StructureDefinition-fr-core-organization-etablissement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:41:18+00:00</t>
+    <t>2026-01-30T10:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
